--- a/biology/Botanique/Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès/Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès.xlsx
+++ b/biology/Botanique/Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès/Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quil%C3%A8s</t>
+          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Moulin-de-la-Pointe - Paul Quilès est un espace vert du 13e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quil%C3%A8s</t>
+          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par la rue du Moulin-de-la-Pointe, après le no 57, par l'allée Alexandre-Vialatte, par le 166, avenue d'Italie et par la rue du Colonel-Dominé.
 Il est desservi par la ligne 7 à la station Porte d'Italie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quil%C3%A8s</t>
+          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom remémore la présence du « Moulin de la Pointe » qui était positionné à l'entrée, à la pointe, de la route de Fontainebleau. Le 8 juillet 2022 est ajouté au nom du jardin Paul Quilès (1942-2021), homme politique français[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom remémore la présence du « Moulin de la Pointe » qui était positionné à l'entrée, à la pointe, de la route de Fontainebleau. Le 8 juillet 2022 est ajouté au nom du jardin Paul Quilès (1942-2021), homme politique français.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quil%C3%A8s</t>
+          <t>Jardin_du_Moulin-de-la-Pointe_-_Paul_Quilès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 1992, puis étendu en 2003[2] dans le cadre de la ZAC Tage-Kellermann aménagée par la SEMAVIP (Société d’économie mixte d’équipement et d’aménagement de la Ville de Paris) avec pour architecte Gilles Vexlard[3]. La partie nord d'environ 3 000 m2 est une dalle au-dessus de la ligne de Petite Ceinture[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 1992, puis étendu en 2003 dans le cadre de la ZAC Tage-Kellermann aménagée par la SEMAVIP (Société d’économie mixte d’équipement et d’aménagement de la Ville de Paris) avec pour architecte Gilles Vexlard. La partie nord d'environ 3 000 m2 est une dalle au-dessus de la ligne de Petite Ceinture.
 En septembre 2015, le jardin est devenu une des extrémités de la Petite Ceinture du 13e.
 </t>
         </is>
